--- a/Team Deliverable 3/Gantt chart for pres.xlsx
+++ b/Team Deliverable 3/Gantt chart for pres.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Docs\GT2\6440\Git\FHIRed_Up\Team Deliverable 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="576" yWindow="108" windowWidth="12552" windowHeight="3984"/>
   </bookViews>
@@ -82,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -217,12 +222,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -279,7 +287,20 @@
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -288,6 +309,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -320,6 +346,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -361,11 +392,30 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -374,6 +424,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -406,6 +461,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -435,6 +495,12 @@
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -451,7 +517,20 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -460,6 +539,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -492,6 +576,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -510,7 +599,7 @@
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -533,11 +622,30 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -546,6 +654,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -578,6 +691,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -596,7 +714,7 @@
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -607,7 +725,20 @@
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -616,6 +747,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -648,6 +784,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -673,7 +814,7 @@
             <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -693,11 +834,30 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -706,6 +866,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -738,6 +903,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -797,6 +967,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -825,6 +1000,12 @@
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -841,7 +1022,20 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -850,6 +1044,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -882,6 +1081,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -920,7 +1124,7 @@
                   <c:v>42425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42461</c:v>
+                  <c:v>42481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,6 +1145,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -982,11 +1191,30 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -995,6 +1223,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1027,6 +1260,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -1065,7 +1303,7 @@
                   <c:v>42452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42471</c:v>
+                  <c:v>42478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,6 +1324,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1114,6 +1357,12 @@
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1130,7 +1379,20 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1139,6 +1401,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1171,6 +1438,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1199,6 +1471,12 @@
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1215,7 +1493,20 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1224,6 +1515,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1256,6 +1552,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-B0AC-434F-BB08-EF3D3E57F9A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1416,7 +1717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1449,9 +1750,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1484,6 +1802,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1662,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1809,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="5">
-        <v>42461</v>
+        <v>42481</v>
       </c>
       <c r="F9" s="10">
         <v>4</v>
@@ -1849,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="5">
-        <v>42471</v>
+        <v>42478</v>
       </c>
       <c r="F11" s="10">
         <v>3</v>
